--- a/OneWayRPG2/docs/message.xlsx
+++ b/OneWayRPG2/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>防具が強化されて&lt;val1&gt;になった</t>
+  </si>
+  <si>
+    <t>HPジャストゼロボーナス</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1559,7 +1562,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A65">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A66">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2347,6 +2350,18 @@
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s" s="4">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2405,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2414,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2423,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2432,7 +2447,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2441,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2450,7 +2465,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2459,7 +2474,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2468,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2477,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2486,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2495,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2504,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2513,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2522,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2531,7 +2546,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2540,7 +2555,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2549,7 +2564,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2558,7 +2573,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2567,7 +2582,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2576,7 +2591,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2585,7 +2600,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2594,7 +2609,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2603,7 +2618,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2612,7 +2627,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2621,7 +2636,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2630,7 +2645,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2639,7 +2654,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2648,7 +2663,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2657,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2666,7 +2681,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2684,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2693,7 +2708,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2702,7 +2717,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2711,7 +2726,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/OneWayRPG2/docs/message.xlsx
+++ b/OneWayRPG2/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>HPジャストゼロボーナス</t>
+  </si>
+  <si>
+    <t>アイテムがないので自動攻撃</t>
   </si>
   <si>
     <t>攻撃力</t>
@@ -1562,7 +1565,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1598,7 +1601,7 @@
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5">
-        <f t="shared" si="0" ref="A3:A66">ROW()-2</f>
+        <f t="shared" si="0" ref="A3:A67">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
@@ -2362,6 +2365,18 @@
       </c>
       <c r="C66" t="s" s="4">
         <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2420,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2429,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2438,7 +2453,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2447,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2456,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2465,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2474,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2483,7 +2498,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2492,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2501,7 +2516,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2510,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2519,7 +2534,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2528,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2537,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2546,7 +2561,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2555,7 +2570,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2564,7 +2579,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2573,7 +2588,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2582,7 +2597,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2591,7 +2606,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2600,7 +2615,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2609,7 +2624,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2618,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2627,7 +2642,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2636,7 +2651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2645,7 +2660,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2654,7 +2669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2663,7 +2678,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2672,7 +2687,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2681,7 +2696,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2699,7 +2714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2708,7 +2723,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2717,7 +2732,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2726,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
